--- a/工作汇报.xlsx
+++ b/工作汇报.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\BigDataLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,13 +15,14 @@
     <sheet name="2017年工作日报" sheetId="1" r:id="rId1"/>
     <sheet name="2017年周报" sheetId="2" r:id="rId2"/>
     <sheet name="2018年工作日报" sheetId="3" r:id="rId3"/>
+    <sheet name="2018年周报" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="345">
   <si>
     <t>工作日报</t>
   </si>
@@ -55,13 +56,6 @@
   </si>
   <si>
     <t>大数据</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1，完成安装所需的电脑组装和相关软件安装.
-2, 了解整个现在系统的业务流程，了解旧系统的架构。
-3，了解现阶段的三个业务需求，和重构后的系统架构。 
-4，了解Hbase 的相关基本概念。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -167,15 +161,6 @@
   </si>
   <si>
     <t>大数据</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1,完成入职手续的办理。
-2,完成办公环境以及开发所需要的软件的安装。
-3,学习了Hbase 的基本概念，基本的shell和基本的客户端API
-4,整理了一些开发用的的文档，如Hbase 集群搭建流程，Hbase shell 基本知识，ZK 基本知识，以及ZK 集群的搭建。
-5,初步拟定团队内知识技能提升的一些规范，一些常用知识的归档和分享流程。
-</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1667,12 +1652,233 @@
     <t>1，参加FTP 重构会议。并查看FTP 现在的业务流程和实现方法。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>1，梳理整个项目中的FTP 模块和Server 等模块。
+2，整理整个系统架构，分析是否存在未知的问题。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，继续参加基于ceph 对象的存储架构方案讨论。思考其间的实现细节。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，从整理上看，整个系统架构向着更加全面稳定的方向完善，问题大概如下：
+A，ftp 负载均衡架构可以再进行优化。
+B，动态库以图搜图，可以分为多线程搜索。
+C，静态信息库后续需要优化。不然数据量上去之后，实时告警是一定扛不住的。
+D，整个开发流程需要进行规范化，类似需求分析文档，设计文档，类图，代码设计，数据流向，代码测试，这些方面没有文档类的内容。而且版本各个阶段的文档没有进行分类</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，大致浏览NIO 的内容，以及Netty 的作用。
+2，考虑ftp 重构成人脸采集的集群后的内容，梳理流程。
+3，快速比较两个文件的差异，改如何实现。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，NIO 的内容只是大致的浏览了一下，其是一个非阻塞的IO操作，相对于传统的阻塞型IO 操作，Netty 是java 并发编程以及远程调度相关的内容。
+2，理清人脸采集模块的数据处理中的数据流向。
+3，具体的该如何比较，需要具体的json 文件出来之后再做方案，现在在网上搜索具体的相关博客。有意义的博客不多。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，整理ftp 人脸采集模块的队列处理的类图。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，整理人脸采集中，数据处理队列的类图。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，完成了整个人脸采集模块的UML 类图，加深了对这个模块数据流向和代码设计的内容。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，查看是否可以把人脸采集中的数据模块UML 中的代码设计以及类结构进行优化。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，整理的人脸采集模块中，查看是否有需要改进的地方。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，整体流程没有问题，Log 模块还可以进一步得进行抽象，其他，诸如拼写错误的内容可以忽略。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，整理和调研设计日记合并删除模块改怎么处理。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1,完成入职手续的办理。
+2,完成办公环境以及开发所需要的软件的安装。
+3,学习了Hbase 的基本概念，基本的shell和基本的客户端API
+4,整理了一些开发用的的文档，如Hbase 集群搭建流程，Hbase shell 基本知识，ZK 基本知识，以及ZK 集群的搭建。
+5,初步拟定团队内知识技能提升的一些规范，一些常用知识的归档和分享流程。
+</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>上周工作内容（2018/1/15---2018/1/21）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>本周工作计划（2018/1/22---2018/1/28）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1，小文件合并修改后功能验证，查看小文件合并后在南昌的运行情况，现在小文件合并情况已经稳定，基本每天每个摄像头下面会产生一个或者几个200M 到260M 之间的文件。
+2，梳理ftp 执行的大致流程。
+3，参与ftp 模块重构为人脸采集服务器的会议讨论，熟悉重构后得的架构。
+ </t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与人脸采集模块内容中ftp 本地数据迁移的代码设计和编写，内容包括：
+1，两个文件高效比较差异的算法探究。
+2，整个迁移过程的流程梳理。
+3，定时任务该如何设计。
+4，代码UML 设计，（代码数据模型）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3周</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，完成安装所需的电脑组装和相关软件安装.
+2, 了解整个现在系统的业务流程，了解旧系统的架构。
+3，了解现阶段的三个业务需求，和重构后的系统架构。 
+4，了解Hbase 的相关基本概念。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，人脸采集merge模块的代码详细设计UML 图和流程图。
+2，人脸采集merge模块简单的代码实现和工具类进行实现。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,整个流程图和UML 代码设计图已经发到群里面共享。
+2，一些基本的方法已经实现，工具类已经实现，还剩下代码整合。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，人脸采集merge模块的代码详细设计UML 图和流程图。
+2，人脸采集merge模块简单的代码实现和工具类进行实现。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，整理人脸采集集群merge模块的流程和注意事项。
+2，实现Merge模块中两文件合并，快速比较差异的算法。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，整个流程已经梳理清楚，现在需要知道的是，文件的命名规则，以及文件的内容格式。以及具体代码设计中，分批量进行存储和删除数据的问题。
+2，Merge模块，两个文件的对比，1000万数据只需要3到5秒左右，所以对比算法不是问题。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，人脸采集集群Merge 模块，进行各个类的编写整合。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，人脸采集集群Merge 模块，进行各个类的编写整合。
+2，人脸采集集群Merge 模块需求变更，需要重新梳理需求和概要设计，流程图，类图，代码编写。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，之前是按照定时任务来设计的，而且是按照ceph 集群来设计的，而现在ceph 集群暂时不用，而且定时任务不符合项目需求，所以推倒重新设计。
+2，人脸集群需求变更后，现在已经梳理清楚概要的流程，即概要设计。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1，流程图设计，详细设计和类图设计（代码设计）。
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，流程图设计，详细设计和类图设计（代码设计）。
+2，把基本的工具类实现，实现分发给燊偲和打包实现，我来进行测试。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，编写一个测试类，测试里面的接口，大致想了一下有关测试的内容。
+2，合并小文件的时间有待进行整理，大致思路是增加合并临时文件的时间。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，分担大报和燊偲部分代码编写。
+2，整理好小文件合并的一个合理的时间，以700 路摄像头来计算。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，对燊偲和大报写的代码进行测试。
+2，对合并小文件的时间进行规划。
+3，协助燊偲和大报对merge 编写merge 模块的代码。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1，小文件合并时间的合理规划计算方法整理。
+参与人脸采集模块内容中ftp 本地数据迁移的代码设计和编写，内容包括：
+1，两个文件高效比较差异的算法探究。
+2，整个迁移过程的流程梳理。
+3，定时任务该如何设计，（这个不用考虑，设计方案变更，把merge 模块作为人脸采集模块的插件。）
+4，代码UML 设计，（代码数据模型）
+5，期间方案变更过一次，所以在方案流程图和代码设计方面多花了一些时间。到这周周末为止，大概能够完成80% 左右的编码。
+</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>本周工作内容（2018/1/22---2018/1/27）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>下周工作计划（2018/1/29---2018/1/02）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1，完成merge 模块的所有代码编写。
+2，对人脸采集模块进行测试类编写。
+</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，详细的流程图已经画好，类设计图也已经整理好，现在分的任务是大报在写恢复未处理的数据的类，燊偲在写恢复处理失败的类。具体流程已经给他们讲清楚，由他们来写，我来提供协助和测试。
+2，今天的进度，流程图和类图以及代码设计以及整理好。把基本需要用到的工具类都实现80% 左右。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，对燊偲和大报写的代码进行测试。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四周</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五周</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，查看大数据一些分布式搜索引擎，以及大数据相关的架构，看是否有好用的组件可以引进到整个人脸识别系统中。
+2，对燊偲和大报的接口进行统一测试。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，安装了Kylin 分布式搜索，没有安装成功，jar 包冲突问题，没有解决。另外看了一下时序数据库，TSDB.
+2, 现在基本的接口功能已经测试通过。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，修改集群安装包的安装脚本。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1750,8 +1956,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1799,8 +2011,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1860,6 +2078,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1869,7 +2149,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2005,6 +2285,21 @@
     <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2016,9 +2311,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2032,6 +2324,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2039,9 +2334,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2053,17 +2345,38 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2373,10 +2686,10 @@
   <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:F2"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2390,14 +2703,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:6" s="15" customFormat="1" ht="27" customHeight="1">
       <c r="A2" s="14" t="s">
@@ -2420,14 +2733,14 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="13" customFormat="1" ht="27" customHeight="1">
-      <c r="A3" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="48"/>
+      <c r="A3" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="53"/>
     </row>
     <row r="4" spans="1:6" s="6" customFormat="1" ht="103.5" customHeight="1">
       <c r="A4" s="4" t="s">
@@ -2440,13 +2753,13 @@
         <v>42905</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="86.1" customHeight="1">
@@ -2460,13 +2773,13 @@
         <v>42906</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="86.1" customHeight="1">
@@ -2480,13 +2793,13 @@
         <v>42907</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="67.5">
@@ -2500,13 +2813,13 @@
         <v>42908</v>
       </c>
       <c r="D7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="67.5">
@@ -2520,13 +2833,13 @@
         <v>42909</v>
       </c>
       <c r="D8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="F8" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="67.5">
@@ -2540,13 +2853,13 @@
         <v>42912</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="12" t="s">
         <v>25</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="44.25" customHeight="1">
@@ -2560,13 +2873,13 @@
         <v>42913</v>
       </c>
       <c r="D10" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="16" t="s">
         <v>35</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="42" customHeight="1">
@@ -2580,13 +2893,13 @@
         <v>42914</v>
       </c>
       <c r="D11" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="18" t="s">
         <v>38</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="42.75" customHeight="1">
@@ -2600,13 +2913,13 @@
         <v>42915</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="40.5">
@@ -2620,13 +2933,13 @@
         <v>42916</v>
       </c>
       <c r="D13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="21" t="s">
         <v>43</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="40.5">
@@ -2640,13 +2953,13 @@
         <v>42916</v>
       </c>
       <c r="D14" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="22" t="s">
         <v>48</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="53.25" customHeight="1">
@@ -2660,13 +2973,13 @@
         <v>42919</v>
       </c>
       <c r="D15" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="67.5">
@@ -2680,13 +2993,13 @@
         <v>42920</v>
       </c>
       <c r="D16" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>56</v>
-      </c>
       <c r="F16" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="67.5">
@@ -2700,13 +3013,13 @@
         <v>42921</v>
       </c>
       <c r="D17" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="67.5">
@@ -2720,13 +3033,13 @@
         <v>42922</v>
       </c>
       <c r="D18" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="71.25" customHeight="1">
@@ -2740,13 +3053,13 @@
         <v>42923</v>
       </c>
       <c r="D19" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="19" t="s">
         <v>63</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="108">
@@ -2760,13 +3073,13 @@
         <v>42926</v>
       </c>
       <c r="D20" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="24" t="s">
         <v>69</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="112.5" customHeight="1">
@@ -2780,13 +3093,13 @@
         <v>42927</v>
       </c>
       <c r="D21" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>72</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="65.25" customHeight="1">
@@ -2800,13 +3113,13 @@
         <v>42928</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E22" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="67.5">
@@ -2820,13 +3133,13 @@
         <v>42929</v>
       </c>
       <c r="D23" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="9" t="s">
         <v>78</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="65.25" customHeight="1">
@@ -2840,13 +3153,13 @@
         <v>42930</v>
       </c>
       <c r="D24" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="27" t="s">
         <v>81</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="F24" s="27" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="29" customFormat="1" ht="52.5" customHeight="1">
@@ -2860,13 +3173,13 @@
         <v>42933</v>
       </c>
       <c r="D25" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="32" t="s">
         <v>86</v>
-      </c>
-      <c r="E25" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="F25" s="32" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="54">
@@ -2880,13 +3193,13 @@
         <v>42934</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="39.75" customHeight="1">
@@ -2900,13 +3213,13 @@
         <v>42935</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E27" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" s="9" t="s">
         <v>92</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="40.5">
@@ -2920,13 +3233,13 @@
         <v>42936</v>
       </c>
       <c r="D28" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E28" s="9" t="s">
-        <v>95</v>
-      </c>
       <c r="F28" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="54">
@@ -2940,13 +3253,13 @@
         <v>42937</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="67.5">
@@ -2960,13 +3273,13 @@
         <v>42940</v>
       </c>
       <c r="D30" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="F30" s="33" t="s">
         <v>112</v>
-      </c>
-      <c r="E30" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="F30" s="33" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="48.75" customHeight="1">
@@ -2980,158 +3293,158 @@
         <v>42941</v>
       </c>
       <c r="D31" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F31" s="35" t="s">
         <v>115</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="F31" s="35" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="38" customFormat="1" ht="27">
       <c r="A32" s="36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C32" s="37">
         <v>42942</v>
       </c>
       <c r="D32" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="F32" s="34" t="s">
         <v>120</v>
-      </c>
-      <c r="E32" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="F32" s="34" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="96.75" customHeight="1">
       <c r="A33" s="36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C33" s="37">
         <v>42943</v>
       </c>
       <c r="D33" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F33" s="10" t="s">
         <v>123</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="54">
       <c r="A34" s="36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C34" s="37">
         <v>42944</v>
       </c>
       <c r="D34" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F34" s="10" t="s">
         <v>126</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="67.5">
       <c r="A35" s="36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C35" s="37">
         <v>42947</v>
       </c>
       <c r="D35" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F35" s="10" t="s">
         <v>134</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="78" customHeight="1">
       <c r="A36" s="36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C36" s="2">
         <v>42948</v>
       </c>
       <c r="D36" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="F36" s="10" t="s">
         <v>137</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="50.25" customHeight="1">
       <c r="A37" s="36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C37" s="2">
         <v>42949</v>
       </c>
       <c r="D37" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F37" s="10" t="s">
         <v>140</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="40.5">
       <c r="A38" s="36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C38" s="2">
         <v>42950</v>
       </c>
       <c r="D38" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F38" s="19" t="s">
         <v>142</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="F38" s="19" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="54">
       <c r="A39" s="36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B39" s="36" t="s">
         <v>10</v>
@@ -3140,18 +3453,18 @@
         <v>42955</v>
       </c>
       <c r="D39" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F39" s="19" t="s">
         <v>149</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F39" s="19" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="40.5">
       <c r="A40" s="36" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B40" s="36" t="s">
         <v>10</v>
@@ -3160,18 +3473,18 @@
         <v>42956</v>
       </c>
       <c r="D40" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="F40" s="10" t="s">
         <v>153</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="54">
       <c r="A41" s="36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B41" s="36" t="s">
         <v>10</v>
@@ -3180,18 +3493,18 @@
         <v>42957</v>
       </c>
       <c r="D41" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="F41" s="10" t="s">
         <v>156</v>
-      </c>
-      <c r="E41" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="67.5">
       <c r="A42" s="36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B42" s="36" t="s">
         <v>10</v>
@@ -3200,18 +3513,18 @@
         <v>42957</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="54">
       <c r="A43" s="36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B43" s="36" t="s">
         <v>10</v>
@@ -3220,18 +3533,18 @@
         <v>42961</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="67.5">
       <c r="A44" s="36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B44" s="36" t="s">
         <v>10</v>
@@ -3240,18 +3553,18 @@
         <v>42962</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="64.5" customHeight="1">
       <c r="A45" s="36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B45" s="36" t="s">
         <v>10</v>
@@ -3260,18 +3573,18 @@
         <v>42963</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="54">
       <c r="A46" s="36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B46" s="36" t="s">
         <v>10</v>
@@ -3280,18 +3593,18 @@
         <v>42964</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="40.5">
       <c r="A47" s="36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B47" s="36" t="s">
         <v>10</v>
@@ -3300,18 +3613,18 @@
         <v>42965</v>
       </c>
       <c r="D47" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="F47" s="19" t="s">
         <v>174</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="F47" s="19" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="73.5" customHeight="1">
       <c r="A48" s="36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B48" s="36" t="s">
         <v>10</v>
@@ -3320,18 +3633,18 @@
         <v>42969</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="40.5">
       <c r="A49" s="36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B49" s="36" t="s">
         <v>10</v>
@@ -3340,18 +3653,18 @@
         <v>42970</v>
       </c>
       <c r="D49" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="F49" s="10" t="s">
         <v>187</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="54">
       <c r="A50" s="36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B50" s="36" t="s">
         <v>10</v>
@@ -3360,18 +3673,18 @@
         <v>42971</v>
       </c>
       <c r="D50" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="F50" s="10" t="s">
         <v>191</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="54">
       <c r="A51" s="36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B51" s="36" t="s">
         <v>10</v>
@@ -3380,18 +3693,18 @@
         <v>42972</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E51" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="F51" s="10" t="s">
         <v>192</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="90" customHeight="1">
       <c r="A52" s="36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B52" s="36" t="s">
         <v>10</v>
@@ -3400,18 +3713,18 @@
         <v>42976</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="105" customHeight="1">
       <c r="A53" s="36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B53" s="36" t="s">
         <v>10</v>
@@ -3420,18 +3733,18 @@
         <v>42982</v>
       </c>
       <c r="D53" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="F53" s="11" t="s">
         <v>204</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="54">
       <c r="A54" s="36" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B54" s="36" t="s">
         <v>10</v>
@@ -3440,18 +3753,18 @@
         <v>42983</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="54">
       <c r="A55" s="36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B55" s="36" t="s">
         <v>10</v>
@@ -3460,18 +3773,18 @@
         <v>42984</v>
       </c>
       <c r="D55" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="F55" s="19" t="s">
         <v>211</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="F55" s="19" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="35.25" customHeight="1">
       <c r="A56" s="36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B56" s="36" t="s">
         <v>10</v>
@@ -3480,18 +3793,18 @@
         <v>42990</v>
       </c>
       <c r="D56" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="F56" s="19" t="s">
         <v>222</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="F56" s="19" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="66" customHeight="1">
       <c r="A57" s="36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B57" s="36" t="s">
         <v>10</v>
@@ -3500,18 +3813,18 @@
         <v>43003</v>
       </c>
       <c r="D57" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="F57" s="19" t="s">
         <v>230</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="F57" s="19" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="78" customHeight="1">
       <c r="A58" s="36" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B58" s="36" t="s">
         <v>10</v>
@@ -3520,18 +3833,18 @@
         <v>43004</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="54">
       <c r="A59" s="36" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B59" s="36" t="s">
         <v>10</v>
@@ -3540,18 +3853,18 @@
         <v>43005</v>
       </c>
       <c r="D59" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="F59" s="10" t="s">
         <v>235</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="40.5">
       <c r="A60" s="36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B60" s="36" t="s">
         <v>10</v>
@@ -3560,18 +3873,18 @@
         <v>43006</v>
       </c>
       <c r="D60" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="F60" s="10" t="s">
         <v>238</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="F60" s="10" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="44.25" customHeight="1">
       <c r="A61" s="36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B61" s="36" t="s">
         <v>10</v>
@@ -3580,18 +3893,18 @@
         <v>43017</v>
       </c>
       <c r="D61" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="E61" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="E61" s="10" t="s">
-        <v>247</v>
-      </c>
       <c r="F61" s="10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="42.75" customHeight="1">
       <c r="A62" s="36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B62" s="36" t="s">
         <v>10</v>
@@ -3600,38 +3913,38 @@
         <v>43018</v>
       </c>
       <c r="D62" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="F62" s="10" t="s">
         <v>248</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="F62" s="10" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="121.5">
       <c r="A63" s="36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B63" s="36" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C63" s="2">
         <v>43020</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E63" s="39" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="73.5" customHeight="1">
       <c r="A64" s="36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B64" s="36" t="s">
         <v>10</v>
@@ -3640,18 +3953,18 @@
         <v>43025</v>
       </c>
       <c r="D64" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="E64" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="E64" s="10" t="s">
-        <v>261</v>
-      </c>
       <c r="F64" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="94.5">
       <c r="A65" s="36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B65" s="36" t="s">
         <v>10</v>
@@ -3660,18 +3973,18 @@
         <v>43026</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="67.5">
       <c r="A66" s="36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B66" s="36" t="s">
         <v>10</v>
@@ -3680,18 +3993,18 @@
         <v>43028</v>
       </c>
       <c r="D66" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="F66" s="10" t="s">
         <v>264</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="F66" s="10" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="81">
       <c r="A67" s="36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B67" s="36" t="s">
         <v>10</v>
@@ -3700,18 +4013,18 @@
         <v>43039</v>
       </c>
       <c r="D67" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="F67" s="10" t="s">
         <v>270</v>
-      </c>
-      <c r="E67" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="F67" s="10" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="40.5">
       <c r="A68" s="36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B68" s="36" t="s">
         <v>10</v>
@@ -3720,18 +4033,18 @@
         <v>43040</v>
       </c>
       <c r="D68" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="F68" s="10" t="s">
         <v>273</v>
-      </c>
-      <c r="E68" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="F68" s="10" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="54">
       <c r="A69" s="36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B69" s="36" t="s">
         <v>10</v>
@@ -3740,18 +4053,18 @@
         <v>43041</v>
       </c>
       <c r="D69" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="F69" s="10" t="s">
         <v>276</v>
-      </c>
-      <c r="E69" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="F69" s="10" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="48" customHeight="1">
       <c r="A70" s="36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B70" s="36" t="s">
         <v>10</v>
@@ -3760,18 +4073,18 @@
         <v>43045</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="87.75" customHeight="1">
       <c r="A71" s="36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B71" s="36" t="s">
         <v>10</v>
@@ -3780,18 +4093,18 @@
         <v>43061</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="47.25" customHeight="1">
       <c r="A72" s="36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B72" s="36" t="s">
         <v>10</v>
@@ -3800,18 +4113,18 @@
         <v>43062</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E72" s="31" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="54">
       <c r="A73" s="36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B73" s="36" t="s">
         <v>10</v>
@@ -3820,13 +4133,13 @@
         <v>43063</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E73" s="31" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -3844,8 +4157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:J37"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3857,849 +4170,834 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.5">
-      <c r="A1" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
+      <c r="A1" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
     </row>
     <row r="2" spans="1:10" ht="18.75">
       <c r="A2" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="C2" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
+      <c r="D2" s="58" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
     </row>
     <row r="3" spans="1:10" ht="94.5" customHeight="1">
       <c r="A3" s="43" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="44">
         <v>42912</v>
       </c>
-      <c r="D3" s="59" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
+      <c r="D3" s="63" t="s">
+        <v>314</v>
+      </c>
+      <c r="E3" s="64"/>
+      <c r="F3" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
     </row>
     <row r="4" spans="1:10" ht="18.75">
       <c r="A4" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="C4" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="49" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
+      <c r="D4" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
     </row>
     <row r="5" spans="1:10" ht="84" customHeight="1">
       <c r="A5" s="43" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="44">
         <v>42912</v>
       </c>
-      <c r="D5" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="55"/>
+      <c r="D5" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="60"/>
+      <c r="F5" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="60"/>
     </row>
     <row r="6" spans="1:10" ht="18.75">
       <c r="A6" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="C6" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49" t="s">
-        <v>104</v>
-      </c>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
+      <c r="D6" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
     </row>
     <row r="7" spans="1:10" ht="89.25" customHeight="1">
       <c r="A7" s="43" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="44">
         <v>42912</v>
       </c>
-      <c r="D7" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="55"/>
-      <c r="F7" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="55"/>
+      <c r="D7" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="60"/>
+      <c r="F7" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="60"/>
     </row>
     <row r="8" spans="1:10" ht="18.75">
       <c r="A8" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="C8" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49" t="s">
-        <v>106</v>
-      </c>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
+      <c r="D8" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
     </row>
     <row r="9" spans="1:10" ht="90.75" customHeight="1">
       <c r="A9" s="43" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="44">
         <v>42933</v>
       </c>
-      <c r="D9" s="57" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="55"/>
-      <c r="F9" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="55"/>
+      <c r="D9" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="60"/>
+      <c r="F9" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="60"/>
     </row>
     <row r="10" spans="1:10" ht="18.75">
       <c r="A10" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="C10" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
+      <c r="D10" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58" t="s">
+        <v>127</v>
+      </c>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
     </row>
     <row r="11" spans="1:10" ht="77.25" customHeight="1">
       <c r="A11" s="43" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="44">
         <v>42940</v>
       </c>
-      <c r="D11" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="E11" s="55"/>
-      <c r="F11" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="55"/>
+      <c r="D11" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="60"/>
+      <c r="F11" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="60"/>
     </row>
     <row r="12" spans="1:10" ht="18.75">
       <c r="A12" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="C12" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="49" t="s">
-        <v>131</v>
-      </c>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49" t="s">
-        <v>132</v>
-      </c>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
+      <c r="D12" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
     </row>
     <row r="13" spans="1:10" ht="76.5" customHeight="1">
       <c r="A13" s="43" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="44">
         <v>42947</v>
       </c>
-      <c r="D13" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="E13" s="55"/>
-      <c r="F13" s="54" t="s">
-        <v>133</v>
-      </c>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="55"/>
+      <c r="D13" s="59" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" s="60"/>
+      <c r="F13" s="59" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="60"/>
     </row>
     <row r="14" spans="1:10" ht="18.75">
       <c r="A14" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="C14" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="49" t="s">
+      <c r="D14" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49" t="s">
-        <v>147</v>
-      </c>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
     </row>
     <row r="15" spans="1:10" ht="103.5" customHeight="1">
       <c r="A15" s="43" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="44">
         <v>42954</v>
       </c>
-      <c r="D15" s="54" t="s">
+      <c r="D15" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="E15" s="60"/>
+      <c r="F15" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="E15" s="55"/>
-      <c r="F15" s="54" t="s">
-        <v>148</v>
-      </c>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="55"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="60"/>
     </row>
     <row r="16" spans="1:10" ht="18.75">
       <c r="A16" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="C16" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="49" t="s">
-        <v>161</v>
-      </c>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49" t="s">
-        <v>164</v>
-      </c>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
+      <c r="D16" s="58" t="s">
+        <v>159</v>
+      </c>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
     </row>
     <row r="17" spans="1:10" ht="87" customHeight="1">
       <c r="A17" s="43" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="44">
         <v>42961</v>
       </c>
-      <c r="D17" s="54" t="s">
-        <v>162</v>
-      </c>
-      <c r="E17" s="55"/>
-      <c r="F17" s="54" t="s">
-        <v>163</v>
-      </c>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="55"/>
+      <c r="D17" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="E17" s="60"/>
+      <c r="F17" s="59" t="s">
+        <v>161</v>
+      </c>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="60"/>
     </row>
     <row r="18" spans="1:10" ht="18.75">
       <c r="A18" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="C18" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="49" t="s">
-        <v>177</v>
-      </c>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49" t="s">
-        <v>178</v>
-      </c>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
+      <c r="D18" s="58" t="s">
+        <v>175</v>
+      </c>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58" t="s">
+        <v>176</v>
+      </c>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
     </row>
     <row r="19" spans="1:10" ht="87.75" customHeight="1">
       <c r="A19" s="43" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="44">
         <v>42968</v>
       </c>
-      <c r="D19" s="54" t="s">
-        <v>183</v>
-      </c>
-      <c r="E19" s="55"/>
-      <c r="F19" s="54" t="s">
-        <v>184</v>
-      </c>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="55"/>
+      <c r="D19" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="E19" s="60"/>
+      <c r="F19" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="60"/>
     </row>
     <row r="20" spans="1:10" ht="18.75">
       <c r="A20" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="C20" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="49" t="s">
-        <v>196</v>
-      </c>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49" t="s">
-        <v>197</v>
-      </c>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
+      <c r="D20" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58" t="s">
+        <v>195</v>
+      </c>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
     </row>
     <row r="21" spans="1:10" ht="93.75" customHeight="1">
       <c r="A21" s="43" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B21" s="43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" s="44">
         <v>42975</v>
       </c>
-      <c r="D21" s="54" t="s">
-        <v>220</v>
-      </c>
-      <c r="E21" s="55"/>
-      <c r="F21" s="54" t="s">
-        <v>219</v>
-      </c>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="55"/>
+      <c r="D21" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="E21" s="60"/>
+      <c r="F21" s="59" t="s">
+        <v>217</v>
+      </c>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="60"/>
     </row>
     <row r="22" spans="1:10" ht="18.75">
       <c r="A22" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="42" t="s">
+      <c r="C22" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="49" t="s">
-        <v>202</v>
-      </c>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49" t="s">
-        <v>203</v>
-      </c>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
+      <c r="D22" s="58" t="s">
+        <v>200</v>
+      </c>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58" t="s">
+        <v>201</v>
+      </c>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
     </row>
     <row r="23" spans="1:10" ht="113.25" customHeight="1">
       <c r="A23" s="43" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B23" s="43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="44">
         <v>42988</v>
       </c>
-      <c r="D23" s="54" t="s">
-        <v>217</v>
-      </c>
-      <c r="E23" s="55"/>
-      <c r="F23" s="54" t="s">
-        <v>218</v>
-      </c>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="55"/>
+      <c r="D23" s="59" t="s">
+        <v>215</v>
+      </c>
+      <c r="E23" s="60"/>
+      <c r="F23" s="59" t="s">
+        <v>216</v>
+      </c>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="60"/>
     </row>
     <row r="24" spans="1:10" ht="18.75">
       <c r="A24" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="42" t="s">
+      <c r="C24" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="49" t="s">
-        <v>214</v>
-      </c>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49" t="s">
-        <v>215</v>
-      </c>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
+      <c r="D24" s="58" t="s">
+        <v>212</v>
+      </c>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58" t="s">
+        <v>213</v>
+      </c>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
     </row>
     <row r="25" spans="1:10" ht="97.5" customHeight="1">
       <c r="A25" s="43" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="44">
         <v>42989</v>
       </c>
-      <c r="D25" s="54" t="s">
-        <v>221</v>
-      </c>
-      <c r="E25" s="55"/>
-      <c r="F25" s="54" t="s">
-        <v>216</v>
-      </c>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="55"/>
+      <c r="D25" s="59" t="s">
+        <v>219</v>
+      </c>
+      <c r="E25" s="60"/>
+      <c r="F25" s="59" t="s">
+        <v>214</v>
+      </c>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="60"/>
     </row>
     <row r="26" spans="1:10" ht="18.75">
       <c r="A26" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="42" t="s">
+      <c r="C26" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="49" t="s">
-        <v>226</v>
-      </c>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49" t="s">
-        <v>227</v>
-      </c>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
+      <c r="D26" s="58" t="s">
+        <v>224</v>
+      </c>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58" t="s">
+        <v>225</v>
+      </c>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
     </row>
     <row r="27" spans="1:10" ht="166.5" customHeight="1">
       <c r="A27" s="43" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B27" s="43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" s="44">
         <v>42989</v>
       </c>
-      <c r="D27" s="54" t="s">
-        <v>225</v>
-      </c>
-      <c r="E27" s="55"/>
-      <c r="F27" s="54" t="s">
-        <v>228</v>
-      </c>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="55"/>
+      <c r="D27" s="59" t="s">
+        <v>223</v>
+      </c>
+      <c r="E27" s="60"/>
+      <c r="F27" s="59" t="s">
+        <v>226</v>
+      </c>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="60"/>
     </row>
     <row r="28" spans="1:10" ht="18.75">
       <c r="A28" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="42" t="s">
+      <c r="C28" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="49" t="s">
-        <v>242</v>
-      </c>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49" t="s">
-        <v>243</v>
-      </c>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
+      <c r="D28" s="58" t="s">
+        <v>240</v>
+      </c>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58" t="s">
+        <v>241</v>
+      </c>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
     </row>
     <row r="29" spans="1:10" ht="107.25" customHeight="1">
       <c r="A29" s="43" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B29" s="43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29" s="44">
         <v>43003</v>
       </c>
-      <c r="D29" s="54" t="s">
-        <v>244</v>
-      </c>
-      <c r="E29" s="55"/>
-      <c r="F29" s="54" t="s">
-        <v>252</v>
-      </c>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="55"/>
+      <c r="D29" s="59" t="s">
+        <v>242</v>
+      </c>
+      <c r="E29" s="60"/>
+      <c r="F29" s="59" t="s">
+        <v>250</v>
+      </c>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="60"/>
     </row>
     <row r="30" spans="1:10" ht="18.75">
       <c r="A30" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="42" t="s">
+      <c r="C30" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="49" t="s">
-        <v>253</v>
-      </c>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49" t="s">
-        <v>254</v>
-      </c>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
+      <c r="D30" s="58" t="s">
+        <v>251</v>
+      </c>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58" t="s">
+        <v>252</v>
+      </c>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="58"/>
     </row>
     <row r="31" spans="1:10" ht="78.75" customHeight="1">
       <c r="A31" s="43" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B31" s="43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="44">
         <v>43024</v>
       </c>
-      <c r="D31" s="54" t="s">
-        <v>255</v>
-      </c>
-      <c r="E31" s="55"/>
-      <c r="F31" s="54" t="s">
-        <v>256</v>
-      </c>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="55"/>
+      <c r="D31" s="59" t="s">
+        <v>253</v>
+      </c>
+      <c r="E31" s="60"/>
+      <c r="F31" s="59" t="s">
+        <v>254</v>
+      </c>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="60"/>
     </row>
     <row r="32" spans="1:10" ht="18.75">
       <c r="A32" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="42" t="s">
+      <c r="C32" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="49" t="s">
-        <v>283</v>
-      </c>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49" t="s">
-        <v>282</v>
-      </c>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
+      <c r="D32" s="58" t="s">
+        <v>281</v>
+      </c>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58" t="s">
+        <v>280</v>
+      </c>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="58"/>
     </row>
     <row r="33" spans="1:10" ht="111" customHeight="1">
       <c r="A33" s="43" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B33" s="43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" s="44">
         <v>43045</v>
       </c>
-      <c r="D33" s="54" t="s">
-        <v>281</v>
-      </c>
-      <c r="E33" s="55"/>
-      <c r="F33" s="54" t="s">
-        <v>269</v>
-      </c>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="55"/>
+      <c r="D33" s="59" t="s">
+        <v>279</v>
+      </c>
+      <c r="E33" s="60"/>
+      <c r="F33" s="59" t="s">
+        <v>267</v>
+      </c>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="60"/>
     </row>
     <row r="34" spans="1:10" ht="18.75">
       <c r="A34" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="40" t="s">
+      <c r="C34" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="50" t="s">
+      <c r="D34" s="54" t="s">
+        <v>282</v>
+      </c>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54" t="s">
         <v>284</v>
       </c>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50" t="s">
-        <v>286</v>
-      </c>
-      <c r="G34" s="50"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="50"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="54"/>
     </row>
     <row r="35" spans="1:10" ht="82.5" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35" s="2">
         <v>43052</v>
       </c>
-      <c r="D35" s="51" t="s">
+      <c r="D35" s="55" t="s">
+        <v>283</v>
+      </c>
+      <c r="E35" s="56"/>
+      <c r="F35" s="55" t="s">
         <v>285</v>
       </c>
-      <c r="E35" s="52"/>
-      <c r="F35" s="51" t="s">
-        <v>287</v>
-      </c>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="52"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="56"/>
     </row>
     <row r="36" spans="1:10" ht="18.75">
       <c r="A36" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="41" t="s">
+      <c r="C36" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="50" t="s">
-        <v>288</v>
-      </c>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50" t="s">
-        <v>291</v>
-      </c>
-      <c r="G36" s="50"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="50"/>
+      <c r="D36" s="54" t="s">
+        <v>286</v>
+      </c>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54" t="s">
+        <v>289</v>
+      </c>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="54"/>
     </row>
     <row r="37" spans="1:10" ht="74.25" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C37" s="2">
         <v>43052</v>
       </c>
-      <c r="D37" s="51" t="s">
-        <v>289</v>
-      </c>
-      <c r="E37" s="52"/>
-      <c r="F37" s="51" t="s">
-        <v>290</v>
-      </c>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="52"/>
+      <c r="D37" s="55" t="s">
+        <v>287</v>
+      </c>
+      <c r="E37" s="56"/>
+      <c r="F37" s="55" t="s">
+        <v>288</v>
+      </c>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:J36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:J37"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:J29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:J30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:J31"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:J34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:J35"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:J32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:J33"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="F12:J12"/>
     <mergeCell ref="D13:E13"/>
@@ -4716,27 +5014,42 @@
     <mergeCell ref="F5:J5"/>
     <mergeCell ref="F6:J6"/>
     <mergeCell ref="F7:J7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:J34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:J35"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:J32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:J33"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:J36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:J37"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:J29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:J30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:J31"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4746,10 +5059,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3745"/>
+  <dimension ref="A1:F3746"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4757,180 +5070,306 @@
     <col min="1" max="1" width="10.25" customWidth="1"/>
     <col min="2" max="2" width="11.875" customWidth="1"/>
     <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="39" style="64" customWidth="1"/>
-    <col min="5" max="5" width="44.375" style="64" customWidth="1"/>
-    <col min="6" max="6" width="46.75" style="64" customWidth="1"/>
+    <col min="4" max="4" width="39" style="47" customWidth="1"/>
+    <col min="5" max="5" width="44.375" style="47" customWidth="1"/>
+    <col min="6" max="6" width="46.75" style="47" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
     </row>
     <row r="2" spans="1:6" ht="18.75">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="63" t="s">
+      <c r="F2" s="46" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="134.25" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:6" ht="18.75">
+      <c r="A3" s="73" t="s">
+        <v>319</v>
+      </c>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="75"/>
+    </row>
+    <row r="4" spans="1:6" ht="134.25" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C4" s="2">
         <v>43115</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D4" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="F4" s="39" t="s">
         <v>301</v>
       </c>
-      <c r="E3" s="39" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="135">
+      <c r="A5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2">
+        <v>43116</v>
+      </c>
+      <c r="D5" s="39" t="s">
         <v>302</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="E5" s="39" t="s">
+        <v>304</v>
+      </c>
+      <c r="F5" s="39" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="19"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="19"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="19"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="19"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="19"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
+    <row r="6" spans="1:6" ht="94.5">
+      <c r="A6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2">
+        <v>43117</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>305</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>306</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="48" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2">
+        <v>43118</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="39.75" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2">
+        <v>43119</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>311</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>312</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="19"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
+      <c r="A9" s="67" t="s">
+        <v>340</v>
+      </c>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="69"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="19"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="19"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="19"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="19"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="19"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="19"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
+      <c r="A10" s="70"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="72"/>
+    </row>
+    <row r="11" spans="1:6" ht="67.5">
+      <c r="A11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2">
+        <v>43122</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="54">
+      <c r="A12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2">
+        <v>43123</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="67.5">
+      <c r="A13" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2">
+        <v>43124</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>327</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="102.75" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2">
+        <v>43125</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>338</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="54">
+      <c r="A15" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2">
+        <v>43126</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>333</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>331</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="19"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
+      <c r="A16" s="67" t="s">
+        <v>341</v>
+      </c>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="69"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="19"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="19"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
+      <c r="A17" s="70"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="72"/>
+    </row>
+    <row r="18" spans="1:6" ht="90.75" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="2">
+        <v>43129</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>342</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>343</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="19"/>
@@ -11261,8 +11700,12 @@
       <c r="F809" s="39"/>
     </row>
     <row r="810" spans="1:6">
-      <c r="B810" s="29"/>
-      <c r="C810" s="29"/>
+      <c r="A810" s="19"/>
+      <c r="B810" s="1"/>
+      <c r="C810" s="1"/>
+      <c r="D810" s="39"/>
+      <c r="E810" s="39"/>
+      <c r="F810" s="39"/>
     </row>
     <row r="811" spans="1:6">
       <c r="B811" s="29"/>
@@ -23004,12 +23447,154 @@
       <c r="B3745" s="29"/>
       <c r="C3745" s="29"/>
     </row>
+    <row r="3746" spans="2:3">
+      <c r="B3746" s="29"/>
+      <c r="C3746" s="29"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A9:F10"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A16:F17"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="5" max="5" width="46.125" customWidth="1"/>
+    <col min="10" max="10" width="19.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="25.5">
+      <c r="A1" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+    </row>
+    <row r="2" spans="1:10" ht="18.75">
+      <c r="A2" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>315</v>
+      </c>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58" t="s">
+        <v>316</v>
+      </c>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+    </row>
+    <row r="3" spans="1:10" ht="129" customHeight="1">
+      <c r="A3" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="44">
+        <v>43122</v>
+      </c>
+      <c r="D3" s="63" t="s">
+        <v>317</v>
+      </c>
+      <c r="E3" s="64"/>
+      <c r="F3" s="63" t="s">
+        <v>318</v>
+      </c>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+    </row>
+    <row r="4" spans="1:10" ht="18.75">
+      <c r="A4" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>335</v>
+      </c>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58" t="s">
+        <v>336</v>
+      </c>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+    </row>
+    <row r="5" spans="1:10" ht="171" customHeight="1">
+      <c r="A5" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="44">
+        <v>43127</v>
+      </c>
+      <c r="D5" s="63" t="s">
+        <v>334</v>
+      </c>
+      <c r="E5" s="64"/>
+      <c r="F5" s="63" t="s">
+        <v>337</v>
+      </c>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:J3"/>
+  </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>